--- a/gameTb/client/table/服务器列表.xlsx
+++ b/gameTb/client/table/服务器列表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\unseen\gameTb\client\table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\solution\resource\gameTb\client\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,17 @@
   </si>
   <si>
     <t>rewardType.j</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器名称</t>
+  </si>
+  <si>
+    <t>获取服务器名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +532,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -578,11 +589,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -694,6 +705,17 @@
       </c>
       <c r="J3" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -764,17 +786,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="20" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="2"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/gameTb/client/table/服务器列表.xlsx
+++ b/gameTb/client/table/服务器列表.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8685" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="serverCondition" sheetId="9" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
   <si>
     <t>int32_t</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,9 @@
   <si>
     <t>获取服务器名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取服务器列表信息</t>
   </si>
 </sst>
 </file>
@@ -530,7 +533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
@@ -589,17 +592,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
     <col min="5" max="5" width="12.875" style="2" customWidth="1"/>
@@ -716,6 +719,14 @@
       </c>
       <c r="C7" s="2">
         <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/gameTb/client/table/服务器列表.xlsx
+++ b/gameTb/client/table/服务器列表.xlsx
@@ -592,11 +592,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -710,22 +710,22 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A8" s="2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
